--- a/SEM/Spider_EC_Silk_Fiber_Diameter_SEM_2024.xlsx
+++ b/SEM/Spider_EC_Silk_Fiber_Diameter_SEM_2024.xlsx
@@ -706,7 +706,7 @@
         <v>1.875</v>
       </c>
       <c r="AB4" s="2">
-        <v>1.875</v>
+        <v>1.846</v>
       </c>
     </row>
     <row r="5">
@@ -792,7 +792,7 @@
         <v>1.879</v>
       </c>
       <c r="AB5" s="2">
-        <v>1.879</v>
+        <v>2.035</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>1.777</v>
       </c>
       <c r="AB6" s="2">
-        <v>1.777</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -964,7 +964,7 @@
         <v>1.521</v>
       </c>
       <c r="AB7" s="2">
-        <v>1.521</v>
+        <v>1.858</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         <v>1.803</v>
       </c>
       <c r="AB8" s="2">
-        <v>1.803</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>1.879</v>
       </c>
       <c r="AB9" s="2">
-        <v>1.879</v>
+        <v>1.803</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
         <v>1.63</v>
       </c>
       <c r="AB10" s="2">
-        <v>1.63</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="11">
@@ -1308,7 +1308,7 @@
         <v>2.062</v>
       </c>
       <c r="AB11" s="2">
-        <v>2.062</v>
+        <v>2.305</v>
       </c>
     </row>
     <row r="12">
@@ -1394,7 +1394,7 @@
         <v>1.879</v>
       </c>
       <c r="AB12" s="2">
-        <v>1.879</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="13">
@@ -1480,7 +1480,7 @@
         <v>2.129</v>
       </c>
       <c r="AB13" s="2">
-        <v>2.129</v>
+        <v>1.908</v>
       </c>
     </row>
     <row r="14">
@@ -1566,7 +1566,7 @@
         <v>2.062</v>
       </c>
       <c r="AB14" s="2">
-        <v>2.062</v>
+        <v>2.183</v>
       </c>
     </row>
     <row r="15">
@@ -1652,7 +1652,7 @@
         <v>2.183</v>
       </c>
       <c r="AB15" s="2">
-        <v>2.183</v>
+        <v>2.491</v>
       </c>
     </row>
     <row r="16">
@@ -1738,7 +1738,7 @@
         <v>1.63</v>
       </c>
       <c r="AB16" s="2">
-        <v>1.63</v>
+        <v>1.846</v>
       </c>
     </row>
     <row r="17">
@@ -1824,7 +1824,7 @@
         <v>1.82</v>
       </c>
       <c r="AB17" s="2">
-        <v>1.82</v>
+        <v>1.846</v>
       </c>
     </row>
     <row r="18">
@@ -1910,7 +1910,7 @@
         <v>1.82</v>
       </c>
       <c r="AB18" s="2">
-        <v>1.82</v>
+        <v>1.976</v>
       </c>
     </row>
     <row r="19">
@@ -1996,7 +1996,7 @@
         <v>2.0</v>
       </c>
       <c r="AB19" s="2">
-        <v>2.0</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="20">
@@ -2082,7 +2082,7 @@
         <v>1.741</v>
       </c>
       <c r="AB20" s="2">
-        <v>1.741</v>
+        <v>1.858</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>2.129</v>
       </c>
       <c r="AB21" s="2">
-        <v>2.129</v>
+        <v>2.035</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>2.004</v>
       </c>
       <c r="AB22" s="2">
-        <v>2.004</v>
+        <v>2.531</v>
       </c>
     </row>
     <row r="23">
@@ -2340,7 +2340,7 @@
         <v>1.754</v>
       </c>
       <c r="AB23" s="2">
-        <v>1.754</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="24">
